--- a/recording.xlsx
+++ b/recording.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="record sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -410,17 +416,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="000000FF"/>
+    <tabColor rgb="FF0000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="21.625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -4657,7 +4666,1856 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021-03-31 20:17:17</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021-03-31 20:17:46</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>982.0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021-03-31 22:17:37</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>982.0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021-04-01 10:03:02</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>985.9</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:37:42</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>985.9</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>31.4</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:39:21</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:39:55</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:40:46</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:41:40</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:43:42</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:44:18</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:44:18</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:44:18</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:44:18</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:45:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:45:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:45:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:54:34</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>988.0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021-04-01 19:01:10</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021-04-01 19:01:10</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021-04-01 19:45:22</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021-04-01 19:45:22</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021-04-01 19:45:22</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021-04-01 19:45:22</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/recording.xlsx
+++ b/recording.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
@@ -6514,6 +6514,237 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021-04-01 22:17:13</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021-04-01 22:22:19</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>93.2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>980.0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021-04-01 22:36:14</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
@@ -6745,6 +6745,83 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>武则天</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021-04-01 22:49:21</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>985.9</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,6 +893,237 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-04-02 22:09:53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>988.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-04-03 15:21:20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>93.2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>981.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>83479</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-04-04 13:08:04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>983.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12222</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="record sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,20 +410,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF0000FF"/>
+    <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <cols>
-    <col width="21.625" bestFit="1" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -511,12 +502,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>武则天</t>
+          <t>嬴政</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-04-02 17:20:17</t>
+          <t>2021-04-05 21:34:17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,12 +532,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>83479</t>
+          <t>83666</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>151</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -566,7 +557,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -588,12 +579,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>武则天</t>
+          <t>嬴政</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-04-02 17:23:17</t>
+          <t>2021-04-05 21:36:40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,7 +594,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>985.9</t>
+          <t>982.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -618,12 +609,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>83479</t>
+          <t>83596</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>150</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -643,12 +634,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>152</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -657,468 +648,6 @@
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>武则天</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-04-02 17:24:04</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>984.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ADFFA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>31.3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>武则天</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-04-02 21:41:55</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>988.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>83479</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>武则天</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-04-02 21:45:48</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>985.9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ADDDF</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:09:53</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>988.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>83479</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2021-04-03 15:21:20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>93.2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>981.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>83479</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>31.1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>嬴政</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2021-04-04 13:08:04</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>983.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>12222</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>31.3</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>31.3</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1126,6 +655,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/recording.xlsx
+++ b/recording.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +653,237 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-04-05 21:40:28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>983.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-04-05 21:41:28</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>981.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-04-05 21:42:02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>983.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -410,17 +416,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="000000FF"/>
+    <tabColor rgb="FF0000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="21.625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -884,7 +893,778 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:11:13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>985.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:13:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>988.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>33666</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:14:11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>36963</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:15:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>985.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:16:26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>983.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:17:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>980.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>23323</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:19:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>988.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>66666</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:21:05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ADDDD</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:24:10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>982.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ADDDD</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-04-06 10:24:50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>985.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ADDDD</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/recording.xlsx
+++ b/recording.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,6 +1663,237 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-04-06 12:23:53</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>982.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-04-06 12:30:26</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>985.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23323</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>嬴政</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2021-04-06 13:04:03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>980.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>97979</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
@@ -2671,6 +2671,314 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:31:30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>68514</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>31.4</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:57:07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>982.0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:57:58</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:59:25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>76436</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learing\2021\719\Python\Terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98BCD56-85D7-4B00-82BF-328419310F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA358C1E-0979-4C7D-84E6-6C23E9675C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,10 +443,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +759,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2419,190 +2422,190 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="I36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M36" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="M36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="I37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="M37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="J38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="I39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="M39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
@@ -3757,6 +3757,459 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021-05-09 22:32:03</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>32499</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>32.2</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>32.2</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021-05-09 22:39:05</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>45679</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021-05-10 10:36:12</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>975.0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021-05-11 11:31:42</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>45986</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021-05-11 19:55:24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>975.0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>97941</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>72.4</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021-05-11 19:55:55</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>97941</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>71.5</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>71.5</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,10 +426,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -442,8 +442,8 @@
     <col width="9" customWidth="1" style="1" min="6" max="7"/>
     <col width="9.25" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
     <col width="8.25" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="10" max="11"/>
+    <col width="9" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3919,17 +3919,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-05-10 10:36:12</t>
+          <t>2021-05-11 11:31:42</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>975.0</t>
+          <t>9720</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3944,12 +3944,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>45986</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3962,10 +3967,14 @@
           <t>23456</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3987,17 +3996,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-05-11 11:31:42</t>
+          <t>2021-05-11 19:55:24</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>92.9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9720</t>
+          <t>975.0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4012,17 +4021,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>45986</t>
+          <t>97941</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>470</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4037,12 +4046,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>459</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72.4</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4064,17 +4073,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-05-11 19:55:24</t>
+          <t>2021-05-11 19:55:55</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>92.9</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>975.0</t>
+          <t>976.0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4099,7 +4108,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4114,12 +4123,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>465</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>72.4</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4141,70 +4150,455 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-05-11 19:55:55</t>
+          <t>2021-05-12 10:27:25</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>972.0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>32654</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>72.3</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021-05-12 10:31:38</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>973.0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>32654</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021-05-12 10:36:36</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>970.0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>32654</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021-05-12 15:42:34</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>AD156</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021-05-12 15:43:15</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>92.8</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>976.0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>97941</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>975.0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>470</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>71.5</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>71.5</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021-05-12 16:47:26</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1064.0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>62252</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:XFD46"/>
@@ -4604,6 +4604,314 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021-05-14 10:09:25</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1066.0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>62246</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021-05-14 10:34:08</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1067.0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>62246</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021-05-14 10:56:49</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1068.0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>62252</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021-05-14 11:31:57</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1046.9</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>62246</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:XFD46"/>
@@ -4912,6 +4912,1238 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021-05-14 14:57:28</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1067.0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>62252</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>69.7</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:00:24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1013.0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>622E4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>72.4</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:11:25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>6224E</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:12:31</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>69.8</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:13:59</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1043.0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>62251</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:15:20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1043.0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>62254</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>69.7</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:16:41</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1043.0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>62245</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>69.7</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:18:04</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1021.0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>6224A</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:19:15</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1050.0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>622B4</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:20:46</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1035.0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>62253</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:23:36</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>62250</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:25:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>978.0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>62249</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>69.7</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:26:50</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>62247</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:27:25</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>62247</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:28:32</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1015.0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>6224C</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021-05-14 15:29:34</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1009.0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,10 +426,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -442,8 +442,8 @@
     <col width="9" customWidth="1" style="1" min="6" max="7"/>
     <col width="9.25" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
     <col width="8.25" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9" customWidth="1" style="1" min="10" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="10" max="12"/>
+    <col width="9" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6139,6 +6139,83 @@
         </is>
       </c>
       <c r="O74" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021-05-17 11:02:32</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1022.0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>69.7</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:XFD75"/>
@@ -6221,6 +6221,237 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021-05-17 15:49:34</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1027.0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021-05-18 09:46:42</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1022.0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021-05-18 09:54:56</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>71.6</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:XFD75"/>
@@ -6452,6 +6452,83 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021-05-20 11:14:33</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1023.0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>69.8</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:XFD75"/>
@@ -6529,6 +6529,237 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021-05-20 14:42:48</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021-05-20 14:46:37</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021-05-20 14:52:46</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:XFD75"/>
@@ -6760,6 +6760,160 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021-05-23 11:03:48</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>92.6</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1029.0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021-05-23 12:28:32</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>92.7</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1027.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:XFD75"/>
@@ -6914,6 +6914,391 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021-05-26 11:43:05</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1022.0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021-05-26 15:19:41</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>94.2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1027.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021-05-26 17:30:35</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1030.0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021-05-27 17:12:46</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>94.4</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1024.0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021-05-28 10:40:05</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1028.0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:XFD75"/>
@@ -7299,6 +7299,391 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2021-05-31 16:46:53</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>56461</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2021-05-31 16:47:33</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>56461</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021-05-31 17:24:31</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1031.9</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2021-05-31 19:38:55</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1009.0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021-05-31 22:17:43</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1011.0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -410,17 +416,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="001072BA"/>
+    <tabColor rgb="FF1072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="23.125" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -653,7 +662,85 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-06-03 10:47:38</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1032.9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>69.8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/recording.xlsx
+++ b/recording.xlsx
@@ -420,15 +420,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="23.125" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -516,17 +516,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-06-02 21:33:58</t>
+          <t>2021-06-03 17:02:31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>94.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1036.0</t>
+          <t>1041.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>62224</t>
+          <t>96852</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>71.6</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>450</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-06-02 21:34:32</t>
+          <t>2021-06-03 17:09:07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>94.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1034.0</t>
+          <t>1031.9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6224D</t>
+          <t>66666</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>451</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>449</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-06-03 10:47:38</t>
+          <t>2021-06-03 17:05:01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>94.3</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1032.9</t>
+          <t>1038.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -720,20 +720,174 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-06-03 17:22:10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1046.9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-06-03 17:17:31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>94.2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1031.9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6224C</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>450</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>70.7</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O3"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-06-03 17:02:31</t>
+          <t>2021-06-03 17:39:48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1041.0</t>
+          <t>1034.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>452</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>452</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-06-03 17:05:01</t>
+          <t>2021-06-03 17:37:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>94.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1038.0</t>
+          <t>1031.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>449</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -747,17 +747,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-06-03 17:22:10</t>
+          <t>2021-06-03 17:35:37</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>94.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1046.9</t>
+          <t>1026.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -777,12 +777,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>446</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-06-03 17:17:31</t>
+          <t>2021-06-03 17:36:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1031.9</t>
+          <t>1036.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>450</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>446</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,20 +410,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF1072BA"/>
+    <tabColor rgb="001072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <cols>
-    <col width="26" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -516,7 +507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-06-03 17:39:48</t>
+          <t>2021-06-03 21:16:31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,7 +517,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1034.0</t>
+          <t>1031.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -541,7 +532,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96852</t>
+          <t>66666</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -551,7 +542,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,12 +557,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>456</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>71.3</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -580,314 +571,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>操作员01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-06-03 17:09:07</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>94.2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1031.9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>66666</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>70.7</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>449</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>69.9</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>操作员01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-06-03 17:37:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>94.2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1031.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6224D</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>70.4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>449</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>操作员01</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-06-03 17:35:37</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>94.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1026.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>11111</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>446</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>70.4</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>操作员01</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-06-03 17:36:30</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>94.2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1036.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6224C</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>70.5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>446</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>70.4</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -895,6 +578,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/recording.xlsx
+++ b/recording.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,83 +499,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>操作员01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-06-03 21:16:31</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>94.2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1031.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>66666</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>70.4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>23456</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>69.9</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,160 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-06-10 16:21:18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1035.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>操作员01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-06-10 16:27:36</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1030.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6224A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,22 +502,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>操作员01</t>
+          <t>李爱明</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-06-10 16:21:18</t>
+          <t>2021-06-13 12:17:51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>94.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1035.0</t>
+          <t>1020.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -532,17 +532,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6224D</t>
+          <t>62254</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>463</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>70.8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>460</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -571,83 +571,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>操作员01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:27:36</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>94.3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1030.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6224A</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>71.4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>45678</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>70.7</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>

--- a/recording.xlsx
+++ b/recording.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -410,17 +416,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="001072BA"/>
+    <tabColor rgb="FF1072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="21.25" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -502,75 +511,1307 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>527523</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-06-14 17:18:24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24632</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>527523</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-06-14 17:19:02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>622AD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>527523</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-06-14 17:19:44</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>31843</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>527523</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-06-14 17:20:21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A3D1F</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>527523</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-06-14 17:31:20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1030.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17176</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-06-14 18:55:24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>34563</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17176</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-06-14 18:55:56</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1027.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>77697</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>03546</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-06-15 10:05:39</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>763683</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-06-14 20:26:40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15315</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>763683</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-06-14 20:33:48</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>64986</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>763683</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-06-14 20:36:05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11234</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>763683</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-06-14 20:40:22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>33655</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>72.3</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>李爱明</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-06-13 12:17:51</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>94.2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1020.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-06-15 12:23:28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>94.4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1001.9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>在线</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>62254</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>463</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>97196</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-06-15 12:24:15</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1001.9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>79826</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-06-15 12:24:56</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>94.4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1001.9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>31673</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>70.8</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>45678</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-06-15 12:25:39</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>64719</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>70.5</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-06-15 12:26:35</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>94.3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1001.9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17463</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -578,5 +1819,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>